--- a/HomeCredit_columns_description.xlsx
+++ b/HomeCredit_columns_description.xlsx
@@ -5,25 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leova\Desktop\Projetos\05_modelo_risco_de_credito\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leova\Desktop\Projetos\05_modelo_risco_de_credito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBFF643-42A7-47B2-94C4-3E9ACA30DDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072F6959-EA3A-4C21-B666-71FDE0D64809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="19200" windowWidth="16200" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$220</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$220</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="525">
   <si>
     <t>Table</t>
   </si>
@@ -1592,6 +1592,12 @@
   </si>
   <si>
     <t>Número de consultas ao Credit Bureau sobre o cliente num dia por ano (excluindo os últimos 3 meses anteriores à candidatura);</t>
+  </si>
+  <si>
+    <t>Já Modelei</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1742,6 +1748,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1771,7 +1786,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2171,10 +2186,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E220"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2184,9 +2200,10 @@
     <col min="3" max="3" width="141.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="152.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2202,8 +2219,11 @@
       <c r="E1" s="7" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="F1" s="18" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -2218,7 +2238,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -2233,7 +2253,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -2248,7 +2268,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -2263,7 +2283,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -2278,7 +2298,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
@@ -2293,7 +2313,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
@@ -2308,7 +2328,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
@@ -2323,7 +2343,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>4</v>
       </c>
@@ -2338,7 +2358,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>4</v>
       </c>
@@ -2353,7 +2373,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>4</v>
       </c>
@@ -2368,7 +2388,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
@@ -2383,7 +2403,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>4</v>
       </c>
@@ -2398,7 +2418,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>4</v>
       </c>
@@ -2413,7 +2433,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>4</v>
       </c>
@@ -2428,7 +2448,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>4</v>
       </c>
@@ -2443,7 +2463,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
@@ -2460,7 +2480,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>4</v>
       </c>
@@ -2477,7 +2497,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>4</v>
       </c>
@@ -2494,7 +2514,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>4</v>
       </c>
@@ -2511,7 +2531,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>4</v>
       </c>
@@ -2528,7 +2548,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>4</v>
       </c>
@@ -2543,7 +2563,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>4</v>
       </c>
@@ -2558,7 +2578,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>4</v>
       </c>
@@ -2573,7 +2593,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>4</v>
       </c>
@@ -2588,7 +2608,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>4</v>
       </c>
@@ -2603,7 +2623,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>4</v>
       </c>
@@ -2618,7 +2638,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>4</v>
       </c>
@@ -2633,7 +2653,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>4</v>
       </c>
@@ -2648,7 +2668,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>4</v>
       </c>
@@ -2663,7 +2683,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>4</v>
       </c>
@@ -2678,7 +2698,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>4</v>
       </c>
@@ -2693,7 +2713,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>4</v>
       </c>
@@ -2708,7 +2728,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>4</v>
       </c>
@@ -2725,7 +2745,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>4</v>
       </c>
@@ -2740,7 +2760,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>4</v>
       </c>
@@ -2755,7 +2775,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>4</v>
       </c>
@@ -2770,7 +2790,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>4</v>
       </c>
@@ -2785,7 +2805,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>4</v>
       </c>
@@ -2800,7 +2820,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>4</v>
       </c>
@@ -2815,7 +2835,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>4</v>
       </c>
@@ -2830,7 +2850,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>4</v>
       </c>
@@ -2847,7 +2867,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>4</v>
       </c>
@@ -2864,7 +2884,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>4</v>
       </c>
@@ -2881,7 +2901,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>4</v>
       </c>
@@ -2898,7 +2918,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>4</v>
       </c>
@@ -2915,7 +2935,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>4</v>
       </c>
@@ -2932,7 +2952,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>4</v>
       </c>
@@ -2949,7 +2969,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>4</v>
       </c>
@@ -2966,7 +2986,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>4</v>
       </c>
@@ -2983,7 +3003,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>4</v>
       </c>
@@ -3000,7 +3020,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>4</v>
       </c>
@@ -3017,7 +3037,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>4</v>
       </c>
@@ -3034,7 +3054,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>4</v>
       </c>
@@ -3051,7 +3071,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>4</v>
       </c>
@@ -3068,7 +3088,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>4</v>
       </c>
@@ -3085,7 +3105,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>4</v>
       </c>
@@ -3102,7 +3122,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>4</v>
       </c>
@@ -3119,7 +3139,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>4</v>
       </c>
@@ -3136,7 +3156,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>4</v>
       </c>
@@ -3153,7 +3173,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>4</v>
       </c>
@@ -3170,7 +3190,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>4</v>
       </c>
@@ -3187,7 +3207,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>4</v>
       </c>
@@ -3204,7 +3224,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>4</v>
       </c>
@@ -3221,7 +3241,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>4</v>
       </c>
@@ -3238,7 +3258,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>4</v>
       </c>
@@ -3255,7 +3275,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>4</v>
       </c>
@@ -3272,7 +3292,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>4</v>
       </c>
@@ -3289,7 +3309,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>4</v>
       </c>
@@ -3306,7 +3326,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>4</v>
       </c>
@@ -3323,7 +3343,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>4</v>
       </c>
@@ -3340,7 +3360,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>4</v>
       </c>
@@ -3357,7 +3377,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>4</v>
       </c>
@@ -3374,7 +3394,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>4</v>
       </c>
@@ -3391,7 +3411,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>4</v>
       </c>
@@ -3408,7 +3428,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>4</v>
       </c>
@@ -3425,7 +3445,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>4</v>
       </c>
@@ -3442,7 +3462,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>4</v>
       </c>
@@ -3459,7 +3479,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>4</v>
       </c>
@@ -3476,7 +3496,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>4</v>
       </c>
@@ -3493,7 +3513,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>4</v>
       </c>
@@ -3510,7 +3530,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="83" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>4</v>
       </c>
@@ -3527,7 +3547,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="84" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>4</v>
       </c>
@@ -3544,7 +3564,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>4</v>
       </c>
@@ -3561,7 +3581,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>4</v>
       </c>
@@ -3578,7 +3598,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>4</v>
       </c>
@@ -3595,7 +3615,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>4</v>
       </c>
@@ -3612,7 +3632,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>4</v>
       </c>
@@ -3629,7 +3649,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>4</v>
       </c>
@@ -3646,7 +3666,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>4</v>
       </c>
@@ -3663,7 +3683,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" s="1" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>4</v>
       </c>
@@ -3680,7 +3700,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>4</v>
       </c>
@@ -3695,7 +3715,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>4</v>
       </c>
@@ -3710,7 +3730,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>4</v>
       </c>
@@ -3725,7 +3745,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>4</v>
       </c>
@@ -3740,7 +3760,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>4</v>
       </c>
@@ -3755,7 +3775,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>4</v>
       </c>
@@ -3770,7 +3790,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>4</v>
       </c>
@@ -3785,7 +3805,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>4</v>
       </c>
@@ -3800,7 +3820,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>4</v>
       </c>
@@ -3815,7 +3835,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>4</v>
       </c>
@@ -3830,7 +3850,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>4</v>
       </c>
@@ -3845,7 +3865,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>4</v>
       </c>
@@ -3860,7 +3880,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>4</v>
       </c>
@@ -3875,7 +3895,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>4</v>
       </c>
@@ -3890,7 +3910,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>4</v>
       </c>
@@ -3905,7 +3925,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>4</v>
       </c>
@@ -3920,7 +3940,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>4</v>
       </c>
@@ -3935,7 +3955,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>4</v>
       </c>
@@ -3950,7 +3970,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>4</v>
       </c>
@@ -3965,7 +3985,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>4</v>
       </c>
@@ -3980,7 +4000,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>4</v>
       </c>
@@ -3995,7 +4015,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="114" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>4</v>
       </c>
@@ -4010,7 +4030,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="115" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>4</v>
       </c>
@@ -4025,7 +4045,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="116" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>4</v>
       </c>
@@ -4040,7 +4060,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>4</v>
       </c>
@@ -4055,7 +4075,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="118" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>4</v>
       </c>
@@ -4070,7 +4090,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="119" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>4</v>
       </c>
@@ -4085,7 +4105,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="120" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>4</v>
       </c>
@@ -4100,7 +4120,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="121" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>4</v>
       </c>
@@ -4115,7 +4135,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="122" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>4</v>
       </c>
@@ -4130,7 +4150,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="123" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" s="1" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>4</v>
       </c>
@@ -4145,7 +4165,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="124" spans="1:5" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" s="2" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>204</v>
       </c>
@@ -4161,8 +4181,11 @@
       <c r="E124" s="9" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="F124" s="16" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="2" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>204</v>
       </c>
@@ -4178,8 +4201,11 @@
       <c r="E125" s="9" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F125" s="16" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>204</v>
       </c>
@@ -4193,8 +4219,11 @@
       <c r="E126" s="9" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F126" s="16" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>204</v>
       </c>
@@ -4210,8 +4239,11 @@
       <c r="E127" s="9" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="F127" s="16" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="2" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>204</v>
       </c>
@@ -4227,8 +4259,9 @@
       <c r="E128" s="9" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F128" s="16"/>
+    </row>
+    <row r="129" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>204</v>
       </c>
@@ -4242,8 +4275,9 @@
       <c r="E129" s="9" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="F129" s="16"/>
+    </row>
+    <row r="130" spans="1:6" s="2" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>204</v>
       </c>
@@ -4259,8 +4293,9 @@
       <c r="E130" s="9" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="F130" s="16"/>
+    </row>
+    <row r="131" spans="1:6" s="2" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>204</v>
       </c>
@@ -4276,8 +4311,9 @@
       <c r="E131" s="9" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="F131" s="16"/>
+    </row>
+    <row r="132" spans="1:6" s="2" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>204</v>
       </c>
@@ -4291,8 +4327,9 @@
       <c r="E132" s="9" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F132" s="16"/>
+    </row>
+    <row r="133" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>204</v>
       </c>
@@ -4306,8 +4343,9 @@
       <c r="E133" s="9" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F133" s="16"/>
+    </row>
+    <row r="134" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>204</v>
       </c>
@@ -4321,8 +4359,9 @@
       <c r="E134" s="9" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F134" s="16"/>
+    </row>
+    <row r="135" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>204</v>
       </c>
@@ -4336,8 +4375,9 @@
       <c r="E135" s="9" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F135" s="16"/>
+    </row>
+    <row r="136" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>204</v>
       </c>
@@ -4351,8 +4391,9 @@
       <c r="E136" s="9" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="F136" s="16"/>
+    </row>
+    <row r="137" spans="1:6" s="2" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>204</v>
       </c>
@@ -4366,8 +4407,9 @@
       <c r="E137" s="9" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F137" s="16"/>
+    </row>
+    <row r="138" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>204</v>
       </c>
@@ -4381,8 +4423,9 @@
       <c r="E138" s="9" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="F138" s="16"/>
+    </row>
+    <row r="139" spans="1:6" s="2" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>204</v>
       </c>
@@ -4398,8 +4441,9 @@
       <c r="E139" s="9" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F139" s="16"/>
+    </row>
+    <row r="140" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>204</v>
       </c>
@@ -4413,8 +4457,9 @@
       <c r="E140" s="9" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="F140" s="16"/>
+    </row>
+    <row r="141" spans="1:6" s="2" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>239</v>
       </c>
@@ -4430,8 +4475,11 @@
       <c r="E141" s="9" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="F141" s="16" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" s="2" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>239</v>
       </c>
@@ -4447,8 +4495,11 @@
       <c r="E142" s="9" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="F142" s="16" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" s="2" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>239</v>
       </c>
@@ -4462,8 +4513,11 @@
       <c r="E143" s="9" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="F143" s="16" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" s="3" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>245</v>
       </c>
@@ -4478,7 +4532,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="145" spans="1:5" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" s="3" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>245</v>
       </c>
@@ -4493,7 +4547,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="146" spans="1:5" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" s="3" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>245</v>
       </c>
@@ -4510,7 +4564,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="147" spans="1:5" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" s="3" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>245</v>
       </c>
@@ -4525,7 +4579,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="148" spans="1:5" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" s="3" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
         <v>245</v>
       </c>
@@ -4540,7 +4594,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="149" spans="1:5" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" s="3" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
         <v>245</v>
       </c>
@@ -4555,7 +4609,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="150" spans="1:5" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" s="3" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
         <v>245</v>
       </c>
@@ -4570,7 +4624,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="151" spans="1:5" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" s="3" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>245</v>
       </c>
@@ -4585,7 +4639,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="152" spans="1:5" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" s="4" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
         <v>259</v>
       </c>
@@ -4602,7 +4656,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="153" spans="1:5" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" s="4" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
         <v>259</v>
       </c>
@@ -4619,7 +4673,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="154" spans="1:5" s="4" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" s="4" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
         <v>259</v>
       </c>
@@ -4636,7 +4690,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="155" spans="1:5" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" s="4" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
         <v>259</v>
       </c>
@@ -4651,7 +4705,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="156" spans="1:5" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" s="4" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
         <v>259</v>
       </c>
@@ -4666,7 +4720,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="157" spans="1:5" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" s="4" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
         <v>259</v>
       </c>
@@ -4681,7 +4735,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="158" spans="1:5" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" s="4" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
         <v>259</v>
       </c>
@@ -4696,7 +4750,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="159" spans="1:5" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" s="4" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
         <v>259</v>
       </c>
@@ -4711,7 +4765,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="160" spans="1:5" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" s="4" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
         <v>259</v>
       </c>
@@ -4726,7 +4780,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="161" spans="1:5" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" s="4" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
         <v>259</v>
       </c>
@@ -4741,7 +4795,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" s="4" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
         <v>259</v>
       </c>
@@ -4756,7 +4810,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" s="4" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
         <v>259</v>
       </c>
@@ -4771,7 +4825,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="164" spans="1:5" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" s="4" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
         <v>259</v>
       </c>
@@ -4786,7 +4840,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="165" spans="1:5" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" s="4" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
         <v>259</v>
       </c>
@@ -4801,7 +4855,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" s="4" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
         <v>259</v>
       </c>
@@ -4816,7 +4870,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" s="4" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
         <v>259</v>
       </c>
@@ -4831,7 +4885,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="168" spans="1:5" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" s="4" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
         <v>259</v>
       </c>
@@ -4846,7 +4900,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" s="4" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
         <v>259</v>
       </c>
@@ -4861,7 +4915,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" s="4" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
         <v>259</v>
       </c>
@@ -4876,7 +4930,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" s="4" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
         <v>259</v>
       </c>
@@ -4891,7 +4945,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" s="4" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
         <v>259</v>
       </c>
@@ -4906,7 +4960,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" s="4" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
         <v>259</v>
       </c>
@@ -4921,7 +4975,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="174" spans="1:5" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" s="4" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
         <v>259</v>
       </c>
@@ -5532,7 +5586,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="213" spans="1:5" s="6" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" s="6" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="s">
         <v>364</v>
       </c>
@@ -5549,7 +5603,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="214" spans="1:5" s="6" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" s="6" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="13" t="s">
         <v>364</v>
       </c>
@@ -5566,7 +5620,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="215" spans="1:5" s="6" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" s="6" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="s">
         <v>364</v>
       </c>
@@ -5581,7 +5635,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="216" spans="1:5" s="6" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" s="6" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="13" t="s">
         <v>364</v>
       </c>
@@ -5596,7 +5650,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="217" spans="1:5" s="6" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" s="6" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="13" t="s">
         <v>364</v>
       </c>
@@ -5613,7 +5667,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="218" spans="1:5" s="6" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" s="6" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
         <v>364</v>
       </c>
@@ -5630,7 +5684,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="219" spans="1:5" s="6" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" s="6" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="13" t="s">
         <v>364</v>
       </c>
@@ -5645,7 +5699,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="220" spans="1:5" s="6" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" s="6" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="s">
         <v>364</v>
       </c>
@@ -5661,7 +5715,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A220" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F220" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="previous_application.csv"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
